--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/template_state/elec/GBSC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/elec/gbsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F1CF3-DABA-4F43-8EF3-D2B4254FE50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB0DFAE-8A95-9A4F-8383-69C7003F0EBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21540" windowHeight="15860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1549,7 +1549,7 @@
         <v>93</v>
       </c>
       <c r="C1" s="23">
-        <v>44246</v>
+        <v>44307</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>94</v>
